--- a/QBUS3350/480110301_QBUS3350_Assignment 2.xlsx
+++ b/QBUS3350/480110301_QBUS3350_Assignment 2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseayeung/Documents/GitHub/S2-2020/QBUS3350/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA547B6-32A0-3E41-B7EC-3972F3A5A1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11440" activeTab="1"/>
+    <workbookView xWindow="5320" yWindow="460" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1a" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,22 @@
     <sheet name="Q3" sheetId="4" r:id="rId4"/>
     <sheet name="Q4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="122">
   <si>
     <t>Q1a</t>
   </si>
@@ -128,7 +144,7 @@
     <t>Pessimistic</t>
   </si>
   <si>
-    <t>Expected time</t>
+    <t>Expected duration</t>
   </si>
   <si>
     <t>Variance</t>
@@ -143,6 +159,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>Expected time</t>
@@ -152,6 +169,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> = (optimistic + 4*(likely)+pessimistic)/6</t>
@@ -164,6 +182,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>Variance</t>
@@ -173,6 +192,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> = ((pessimistic - optimistic)/6))^2</t>
@@ -185,6 +205,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>z</t>
@@ -194,6 +215,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> = (specified time - expected duration)/ path standard time</t>
@@ -206,6 +228,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>probability of project completing in 28 week</t>
@@ -215,6 +238,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> = NORMSDIST(z)</t>
@@ -224,9 +248,6 @@
     <t>Path</t>
   </si>
   <si>
-    <t>Expected duration</t>
-  </si>
-  <si>
     <t>Standard deviation</t>
   </si>
   <si>
@@ -336,27 +357,6 @@
   </si>
   <si>
     <t>Crashed</t>
-  </si>
-  <si>
-    <t>Q2a</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Project A</t>
-  </si>
-  <si>
-    <t>Project B</t>
-  </si>
-  <si>
-    <t>IRR</t>
-  </si>
-  <si>
-    <t>Q2b</t>
-  </si>
-  <si>
-    <t>Discount Rate</t>
   </si>
   <si>
     <r>
@@ -365,6 +365,51 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = (t_s-t_e)/sd</t>
+    </r>
+  </si>
+  <si>
+    <t>Q2a</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>Q2b</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">NPV </t>
@@ -374,6 +419,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>= Initial investment + NPV(Discount rate, cells of future cash flow)</t>
@@ -404,6 +450,18 @@
     <t>adjusted NPV</t>
   </si>
   <si>
+    <t>Q2d</t>
+  </si>
+  <si>
+    <t>ACF_t/(1+IRR)^t</t>
+  </si>
+  <si>
+    <t>adjusted initial investment</t>
+  </si>
+  <si>
+    <t>IRR reduction</t>
+  </si>
+  <si>
     <t>Q3a)</t>
   </si>
   <si>
@@ -467,20 +525,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="\$#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -493,13 +548,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -507,12 +556,29 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -520,167 +586,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,7 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,198 +660,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1073,255 +816,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,16 +844,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="24" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="24" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1367,12 +865,6 @@
     <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,10 +874,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1394,7 +886,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1403,23 +895,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1430,13 +910,142 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,171 +1060,53 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1629,14 +1120,20 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直线箭头连接符 3"/>
+        <xdr:cNvPr id="4" name="直线箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3949700" y="1305560"/>
+          <a:off x="3924300" y="1305560"/>
           <a:ext cx="774700" cy="711200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1676,14 +1173,20 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直线箭头连接符 5"/>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3937000" y="2029460"/>
+          <a:off x="3911600" y="2029460"/>
           <a:ext cx="787400" cy="711200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1723,14 +1226,20 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直线箭头连接符 6"/>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7759700" y="2181860"/>
+          <a:off x="7734300" y="2181860"/>
           <a:ext cx="1054100" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1770,14 +1279,20 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直线箭头连接符 8"/>
+        <xdr:cNvPr id="9" name="直线箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7759700" y="2766060"/>
+          <a:off x="7734300" y="2766060"/>
           <a:ext cx="1054100" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1817,14 +1332,20 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直线箭头连接符 11"/>
+        <xdr:cNvPr id="12" name="直线箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11391900" y="2232660"/>
+          <a:off x="11938000" y="2232660"/>
           <a:ext cx="774700" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1864,14 +1385,20 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直线箭头连接符 13"/>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11404600" y="2740660"/>
+          <a:off x="11950700" y="2740660"/>
           <a:ext cx="749300" cy="546100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1911,14 +1438,20 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直线箭头连接符 15"/>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7772400" y="970280"/>
+          <a:off x="7747000" y="970280"/>
           <a:ext cx="1016000" cy="373380"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1958,14 +1491,20 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直线箭头连接符 17"/>
+        <xdr:cNvPr id="18" name="直线箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11391900" y="995680"/>
+          <a:off x="11938000" y="995680"/>
           <a:ext cx="762000" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2005,14 +1544,20 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直线箭头连接符 19"/>
+        <xdr:cNvPr id="20" name="直线箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14719300" y="2232660"/>
+          <a:off x="15265400" y="2232660"/>
           <a:ext cx="749300" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2052,14 +1597,20 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直线箭头连接符 21"/>
+        <xdr:cNvPr id="22" name="直线箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14706600" y="1318260"/>
+          <a:off x="15252700" y="1318260"/>
           <a:ext cx="749300" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2099,14 +1650,20 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直线箭头连接符 23"/>
+        <xdr:cNvPr id="24" name="直线箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18021300" y="2219960"/>
+          <a:off x="18567400" y="2219960"/>
           <a:ext cx="774700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2136,25 +1693,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>21591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvPr id="26" name="文本框 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7061200" y="6121400"/>
-          <a:ext cx="5524500" cy="2141220"/>
+          <a:off x="6896100" y="7171691"/>
+          <a:ext cx="6096000" cy="2645410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2192,7 +1755,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
             <a:t>Q1a)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2203,11 +1765,6 @@
             </a:rPr>
             <a:t>What is the estimated completion time for the project?</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2218,7 +1775,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
             <a:t> the "Normal" circustance, the estimated completion time for the project is 29 weeks.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
@@ -2232,18 +1788,12 @@
             </a:rPr>
             <a:t>What is the estimated project budget?</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
             <a:t>The estimated project budget is $185,000.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
@@ -2257,11 +1807,6 @@
             </a:rPr>
             <a:t>What is the probability that the project can be completed in 28 week?</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2272,11 +1817,6 @@
             </a:rPr>
             <a:t>The critical path is ACEFIJ with an expected duration of 29 weeks and a path variance of 1 week. The z score is calculated by (28-29)/ 1 = -1. The probability that the project can be completed in 28 weeks is 15.9%, which is the probabiltiy of a test statistic being sameller than -1 in a normal distribution.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2286,7 +1826,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2298,16 +1838,22 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3187700" y="3223260"/>
+          <a:off x="3314700" y="3223260"/>
           <a:ext cx="1104900" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2345,16 +1891,22 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直线箭头连接符 13"/>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="3688080"/>
+          <a:off x="3289300" y="3688080"/>
           <a:ext cx="1092200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2394,14 +1946,20 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直线箭头连接符 14"/>
+        <xdr:cNvPr id="15" name="直线箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6350000" y="3840480"/>
+          <a:off x="6477000" y="3840480"/>
           <a:ext cx="812800" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2441,14 +1999,20 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直线箭头连接符 15"/>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362700" y="4023360"/>
+          <a:off x="6489700" y="4023360"/>
           <a:ext cx="774700" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2488,14 +2052,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直线箭头连接符 16"/>
+        <xdr:cNvPr id="17" name="直线箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8026400" y="3815080"/>
+          <a:off x="8153400" y="3815080"/>
           <a:ext cx="749300" cy="193040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2535,14 +2105,20 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直线箭头连接符 17"/>
+        <xdr:cNvPr id="18" name="直线箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8001000" y="4061460"/>
+          <a:off x="8128000" y="4061460"/>
           <a:ext cx="787400" cy="309880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2582,14 +2158,20 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直线箭头连接符 18"/>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6337300" y="2887980"/>
+          <a:off x="6464300" y="2887980"/>
           <a:ext cx="774700" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2629,14 +2211,20 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直线箭头连接符 19"/>
+        <xdr:cNvPr id="20" name="直线箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7975600" y="2849880"/>
+          <a:off x="8102600" y="2849880"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2676,14 +2264,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直线箭头连接符 20"/>
+        <xdr:cNvPr id="21" name="直线箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9639300" y="3726180"/>
+          <a:off x="9766300" y="3726180"/>
           <a:ext cx="800100" cy="294640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2715,22 +2309,28 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直线箭头连接符 21"/>
+        <xdr:cNvPr id="22" name="直线箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9626600" y="2849880"/>
+          <a:off x="9753600" y="2849880"/>
           <a:ext cx="800100" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2770,14 +2370,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直线箭头连接符 35"/>
+        <xdr:cNvPr id="36" name="直线箭头连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11582400" y="3688080"/>
+          <a:off x="12471400" y="3688080"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2815,16 +2421,22 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直线箭头连接符 38"/>
+        <xdr:cNvPr id="39" name="直线箭头连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3187700" y="5737860"/>
+          <a:off x="3314700" y="5737860"/>
           <a:ext cx="1104900" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2862,16 +2474,22 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直线箭头连接符 39"/>
+        <xdr:cNvPr id="40" name="直线箭头连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="6202680"/>
+          <a:off x="3289300" y="6202680"/>
           <a:ext cx="1092200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2911,14 +2529,20 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直线箭头连接符 40"/>
+        <xdr:cNvPr id="41" name="直线箭头连接符 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6350000" y="6355080"/>
+          <a:off x="6477000" y="6355080"/>
           <a:ext cx="812800" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2958,14 +2582,20 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直线箭头连接符 41"/>
+        <xdr:cNvPr id="42" name="直线箭头连接符 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362700" y="6537960"/>
+          <a:off x="6489700" y="6537960"/>
           <a:ext cx="774700" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3005,14 +2635,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直线箭头连接符 42"/>
+        <xdr:cNvPr id="43" name="直线箭头连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8026400" y="6329680"/>
+          <a:off x="8153400" y="6329680"/>
           <a:ext cx="749300" cy="193040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3052,14 +2688,20 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直线箭头连接符 43"/>
+        <xdr:cNvPr id="44" name="直线箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8001000" y="6576060"/>
+          <a:off x="8128000" y="6576060"/>
           <a:ext cx="787400" cy="309880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3099,14 +2741,20 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直线箭头连接符 44"/>
+        <xdr:cNvPr id="45" name="直线箭头连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6337300" y="5402580"/>
+          <a:off x="6464300" y="5402580"/>
           <a:ext cx="774700" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3146,14 +2794,20 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直线箭头连接符 45"/>
+        <xdr:cNvPr id="46" name="直线箭头连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7975600" y="5364480"/>
+          <a:off x="8102600" y="5364480"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3193,14 +2847,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直线箭头连接符 46"/>
+        <xdr:cNvPr id="47" name="直线箭头连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9639300" y="6240780"/>
+          <a:off x="9766300" y="6240780"/>
           <a:ext cx="800100" cy="294640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3232,22 +2892,28 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直线箭头连接符 47"/>
+        <xdr:cNvPr id="48" name="直线箭头连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9626600" y="5364480"/>
+          <a:off x="9753600" y="5364480"/>
           <a:ext cx="800100" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3287,14 +2953,20 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直线箭头连接符 48"/>
+        <xdr:cNvPr id="49" name="直线箭头连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11582400" y="6202680"/>
+          <a:off x="12471400" y="6202680"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3334,14 +3006,20 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直线箭头连接符 49"/>
+        <xdr:cNvPr id="50" name="直线箭头连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3200400" y="8315960"/>
+          <a:off x="3327400" y="8315960"/>
           <a:ext cx="1104900" cy="439420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3379,16 +3057,22 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直线箭头连接符 50"/>
+        <xdr:cNvPr id="51" name="直线箭头连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="8717280"/>
+          <a:off x="3289300" y="8717280"/>
           <a:ext cx="1092200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3428,14 +3112,20 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直线箭头连接符 51"/>
+        <xdr:cNvPr id="52" name="直线箭头连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6350000" y="8869680"/>
+          <a:off x="6477000" y="8869680"/>
           <a:ext cx="812800" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3475,14 +3165,20 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直线箭头连接符 52"/>
+        <xdr:cNvPr id="53" name="直线箭头连接符 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362700" y="9052560"/>
+          <a:off x="6489700" y="9052560"/>
           <a:ext cx="774700" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3522,14 +3218,20 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直线箭头连接符 53"/>
+        <xdr:cNvPr id="54" name="直线箭头连接符 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8026400" y="8844280"/>
+          <a:off x="8153400" y="8844280"/>
           <a:ext cx="749300" cy="193040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3569,14 +3271,20 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直线箭头连接符 54"/>
+        <xdr:cNvPr id="55" name="直线箭头连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6337300" y="7917180"/>
+          <a:off x="6464300" y="7917180"/>
           <a:ext cx="774700" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3616,14 +3324,20 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直线箭头连接符 55"/>
+        <xdr:cNvPr id="56" name="直线箭头连接符 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7975600" y="7879080"/>
+          <a:off x="8102600" y="7879080"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3663,14 +3377,20 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直线箭头连接符 56"/>
+        <xdr:cNvPr id="57" name="直线箭头连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9639300" y="8755380"/>
+          <a:off x="9766300" y="8755380"/>
           <a:ext cx="800100" cy="294640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3702,22 +3422,28 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直线箭头连接符 57"/>
+        <xdr:cNvPr id="58" name="直线箭头连接符 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9626600" y="7879080"/>
+          <a:off x="9753600" y="7879080"/>
           <a:ext cx="800100" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3757,14 +3483,20 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直线箭头连接符 58"/>
+        <xdr:cNvPr id="59" name="直线箭头连接符 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11582400" y="8717280"/>
+          <a:off x="12471400" y="8717280"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3804,14 +3536,20 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直线箭头连接符 60"/>
+        <xdr:cNvPr id="61" name="直线箭头连接符 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8013700" y="9141460"/>
+          <a:off x="8140700" y="9141460"/>
           <a:ext cx="787400" cy="309880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3851,14 +3589,20 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直线箭头连接符 61"/>
+        <xdr:cNvPr id="62" name="直线箭头连接符 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3200400" y="11165840"/>
+          <a:off x="3327400" y="11165840"/>
           <a:ext cx="1104900" cy="439420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3896,16 +3640,22 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直线箭头连接符 62"/>
+        <xdr:cNvPr id="63" name="直线箭头连接符 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="11567160"/>
+          <a:off x="3289300" y="11567160"/>
           <a:ext cx="1092200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3945,14 +3695,20 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直线箭头连接符 63"/>
+        <xdr:cNvPr id="64" name="直线箭头连接符 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6350000" y="11719560"/>
+          <a:off x="6477000" y="11719560"/>
           <a:ext cx="812800" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3992,14 +3748,20 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直线箭头连接符 64"/>
+        <xdr:cNvPr id="65" name="直线箭头连接符 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362700" y="11902440"/>
+          <a:off x="6489700" y="11902440"/>
           <a:ext cx="774700" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4039,14 +3801,20 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直线箭头连接符 65"/>
+        <xdr:cNvPr id="66" name="直线箭头连接符 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8026400" y="11694160"/>
+          <a:off x="8153400" y="11694160"/>
           <a:ext cx="749300" cy="193040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4086,14 +3854,20 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直线箭头连接符 66"/>
+        <xdr:cNvPr id="67" name="直线箭头连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6337300" y="10767060"/>
+          <a:off x="6464300" y="10767060"/>
           <a:ext cx="774700" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4133,14 +3907,20 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直线箭头连接符 67"/>
+        <xdr:cNvPr id="68" name="直线箭头连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7975600" y="10728960"/>
+          <a:off x="8102600" y="10728960"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4180,14 +3960,20 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直线箭头连接符 68"/>
+        <xdr:cNvPr id="69" name="直线箭头连接符 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9639300" y="11605260"/>
+          <a:off x="9766300" y="11605260"/>
           <a:ext cx="800100" cy="294640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4219,22 +4005,28 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直线箭头连接符 69"/>
+        <xdr:cNvPr id="70" name="直线箭头连接符 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9626600" y="10728960"/>
+          <a:off x="9753600" y="10728960"/>
           <a:ext cx="800100" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4274,14 +4066,20 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直线箭头连接符 70"/>
+        <xdr:cNvPr id="71" name="直线箭头连接符 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11582400" y="11567160"/>
+          <a:off x="12471400" y="11567160"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4321,14 +4119,20 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直线箭头连接符 71"/>
+        <xdr:cNvPr id="72" name="直线箭头连接符 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8013700" y="11991340"/>
+          <a:off x="8140700" y="11991340"/>
           <a:ext cx="787400" cy="309880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4368,14 +4172,20 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直线箭头连接符 72"/>
+        <xdr:cNvPr id="73" name="直线箭头连接符 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3200400" y="13848080"/>
+          <a:off x="3327400" y="13848080"/>
           <a:ext cx="1104900" cy="439420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4413,16 +4223,22 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="直线箭头连接符 73"/>
+        <xdr:cNvPr id="74" name="直线箭头连接符 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="14249400"/>
+          <a:off x="3289300" y="14249400"/>
           <a:ext cx="1092200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4462,14 +4278,20 @@
       <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直线箭头连接符 74"/>
+        <xdr:cNvPr id="75" name="直线箭头连接符 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6350000" y="14401800"/>
+          <a:off x="6477000" y="14401800"/>
           <a:ext cx="812800" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4509,14 +4331,20 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直线箭头连接符 75"/>
+        <xdr:cNvPr id="76" name="直线箭头连接符 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362700" y="14584680"/>
+          <a:off x="6489700" y="14584680"/>
           <a:ext cx="774700" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4556,14 +4384,20 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直线箭头连接符 76"/>
+        <xdr:cNvPr id="77" name="直线箭头连接符 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8026400" y="14376400"/>
+          <a:off x="8153400" y="14376400"/>
           <a:ext cx="749300" cy="193040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4603,14 +4437,20 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直线箭头连接符 77"/>
+        <xdr:cNvPr id="78" name="直线箭头连接符 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6337300" y="13449300"/>
+          <a:off x="6464300" y="13449300"/>
           <a:ext cx="774700" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4650,14 +4490,20 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直线箭头连接符 78"/>
+        <xdr:cNvPr id="79" name="直线箭头连接符 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7975600" y="13411200"/>
+          <a:off x="8102600" y="13411200"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4697,14 +4543,20 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直线箭头连接符 79"/>
+        <xdr:cNvPr id="80" name="直线箭头连接符 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9639300" y="14287500"/>
+          <a:off x="9766300" y="14287500"/>
           <a:ext cx="800100" cy="294640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4736,22 +4588,28 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直线箭头连接符 80"/>
+        <xdr:cNvPr id="81" name="直线箭头连接符 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9626600" y="13411200"/>
+          <a:off x="9753600" y="13411200"/>
           <a:ext cx="800100" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4791,14 +4649,20 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直线箭头连接符 81"/>
+        <xdr:cNvPr id="82" name="直线箭头连接符 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11582400" y="14249400"/>
+          <a:off x="12471400" y="14249400"/>
           <a:ext cx="812800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4838,14 +4702,20 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直线箭头连接符 82"/>
+        <xdr:cNvPr id="83" name="直线箭头连接符 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7988300" y="14635480"/>
+          <a:off x="8115300" y="14635480"/>
           <a:ext cx="787400" cy="309880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4882,18 +4752,24 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="文本框 83"/>
+        <xdr:cNvPr id="84" name="文本框 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7988300" y="18072100"/>
-          <a:ext cx="4610100" cy="1874520"/>
+          <a:off x="8115300" y="21755100"/>
+          <a:ext cx="5372100" cy="1917700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4931,7 +4807,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
             <a:t>Q1b) </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4975,9 +4850,8 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
-            <a:t> F for one week. The duration of the project will be reduced to 28 weeks and  the toal cost is $203,000. </a:t>
+            <a:t> F for one week. The duration of the project will be reduced to 28 weeks and  the toal cost is $188,000. </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
@@ -4995,15 +4869,6 @@
             </a:rPr>
             <a:t>What is the probability of completing the project in 28 weeks? </a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" altLang="zh-CN" sz="1200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5030,18 +4895,6 @@
             </a:rPr>
             <a:t>The critical path is ACEFIJ with an expected duration of 28 weeks and a variance of 1 week. The probability that the project can be completed in 28 weeks is 50%, which is the probability of test statistic being smaller than 0 in a normal distribution.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" altLang="zh-CN" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5051,29 +4904,35 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="6466840"/>
-          <a:ext cx="5727700" cy="1767840"/>
+          <a:off x="838200" y="7734300"/>
+          <a:ext cx="6642100" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5115,7 +4974,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
             <a:t> The IRR for project A is 27.2% while the IRR for project B is 25.8%.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
@@ -5125,7 +4983,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
             <a:t>Q2b) Without considering unequal project duration, the NPV for project A is 127.6 while the NPV project B is 141.4. With a greater NPV, project B will be selected.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
@@ -5141,11 +4998,788 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="836295" y="10185399"/>
+              <a:ext cx="2814955" cy="1270001"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                        <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                      </a:rPr>
+                      <m:t>0 =−</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                        <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="undOvr"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐴𝐶𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>(1+</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐼𝑅𝑅</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                        <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="undOvr"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐴𝐶𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>(1+</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐼𝑅𝑅</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="836295" y="10185399"/>
+              <a:ext cx="2814955" cy="1270001"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>0 =−𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>0+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑1_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴𝐶𝐹</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>/〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>(1+𝐼𝑅𝑅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>0=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑1_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴𝐶𝐹</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>/〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>(1+𝐼𝑅𝑅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>821690</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="821690" y="14434185"/>
+          <a:ext cx="3089910" cy="818515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>The initial cash outflow should be reduced by 8.8 to 491.2 to assure that both projects have the same IRR.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -5159,9 +5793,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直线箭头连接符 2"/>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5206,9 +5846,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直线箭头连接符 3"/>
+        <xdr:cNvPr id="4" name="直线箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5253,9 +5899,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直线箭头连接符 4"/>
+        <xdr:cNvPr id="5" name="直线箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5300,9 +5952,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直线箭头连接符 5"/>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5337,25 +5995,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>193040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="2204720"/>
-          <a:ext cx="6667500" cy="812800"/>
+          <a:off x="215900" y="2692400"/>
+          <a:ext cx="6667500" cy="955040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5419,13 +6083,8 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>The completion time for tasks with FS lag and the overall completion time of the project remain the same for both approaches. However, adding the FS lag to the duration of subsequent activity can lead to inconsistency of resourse (time) assignment on subsequent activity.  This can  cause problem when performing resource levelingn, especially when time is limited.</a:t>
+            <a:t>The completion time for tasks with FS lag and the overall completion time of the project remain the same for both approaches. However, adding the FS lag to the duration of subsequent activity can lead to inconsistency of resourse (time) assignment on subsequent activity.  This can  cause problem when performing resource leveling, especially when time is limited.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5435,7 +6094,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5447,17 +6106,23 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="2913380"/>
-          <a:ext cx="7353300" cy="1417320"/>
+          <a:off x="660400" y="3517900"/>
+          <a:ext cx="6946900" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5499,7 +6164,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t> $240,000 for Design, $120,000 for Programming  and $240,000 for In-house testing.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -5556,14 +6220,6 @@
             </a:rPr>
             <a:t>This apportion method is a top-bottom budgetting procedure. With this approach, estimates are usually made by top managers who may not be familiar with the processes used to compete the project. This leads to relatively low accuracies and high uncertainties of estimates compared to a bottom-top approach.  Moreover, it has also been a challenge to come up with the total cost and the weights of subsequent tasks. When the total cost and weights of tasks being estimated by experience and historical data, project can fail due to uniqueness of different projects.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5824,89 +6480,89 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.8333333333333" style="1"/>
-    <col min="3" max="3" width="19.1666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="18.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8333333333333" style="1"/>
-    <col min="9" max="9" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.8333333333333" style="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="22.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14" spans="2:4">
-      <c r="B3" s="68" t="s">
+    <row r="3" spans="1:24" ht="17">
+      <c r="B3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="59" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14" spans="2:4">
-      <c r="B4" s="68" t="s">
+    <row r="4" spans="1:24" ht="17">
+      <c r="B4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="70"/>
-    </row>
-    <row r="5" ht="14" spans="2:12">
-      <c r="B5" s="68" t="s">
+      <c r="D4" s="65"/>
+    </row>
+    <row r="5" spans="1:24" ht="17">
+      <c r="B5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="48">
         <f>H7</f>
         <v>10</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="61">
         <f>J5+K7</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="10:12">
-      <c r="J6" s="73">
+    <row r="6" spans="1:24">
+      <c r="J6" s="62">
         <f>J7-J5</f>
         <v>4</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="75"/>
-    </row>
-    <row r="7" spans="6:16">
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="F7" s="3">
         <f>D11</f>
         <v>3</v>
@@ -5918,50 +6574,50 @@
         <f>F7+G9</f>
         <v>10</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="62">
         <f>L7-K7</f>
         <v>14</v>
       </c>
-      <c r="K7" s="76">
+      <c r="K7" s="63">
         <v>6</v>
       </c>
-      <c r="L7" s="76">
+      <c r="L7" s="63">
         <f>N9</f>
         <v>20</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="48">
         <f>L5</f>
         <v>16</v>
       </c>
-      <c r="O7" s="72" t="s">
+      <c r="O7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="61">
         <f>O9+N7</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="14" spans="1:16">
-      <c r="A8" s="71"/>
+    <row r="8" spans="1:24">
+      <c r="A8" s="60"/>
       <c r="F8" s="3">
         <f>F9-F7</f>
         <v>4</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="N8" s="73">
+      <c r="H8" s="69"/>
+      <c r="N8" s="62">
         <f>N9-N7</f>
         <v>4</v>
       </c>
-      <c r="O8" s="74" t="s">
+      <c r="O8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="75"/>
-    </row>
-    <row r="9" ht="14" spans="1:16">
-      <c r="A9" s="71"/>
+      <c r="P8" s="67"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="60"/>
       <c r="F9" s="3">
         <f>H9-G9</f>
         <v>7</v>
@@ -5973,23 +6629,23 @@
         <f>J7</f>
         <v>14</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="62">
         <f>P9-O9</f>
         <v>20</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="63">
         <v>2</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="63">
         <f>R14</f>
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="14" spans="1:1">
-      <c r="A10" s="71"/>
-    </row>
-    <row r="11" ht="14" spans="1:4">
-      <c r="A11" s="71"/>
+    <row r="10" spans="1:24">
+      <c r="A10" s="60"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="60"/>
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -6001,16 +6657,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="14" spans="1:24">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:24">
+      <c r="A12" s="60"/>
       <c r="B12" s="3">
         <f>B13-B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="69"/>
       <c r="J12" s="3">
         <f>H15</f>
         <v>9</v>
@@ -6022,31 +6678,31 @@
         <f>J12+K14</f>
         <v>16</v>
       </c>
-      <c r="R12" s="58">
+      <c r="R12" s="48">
         <f>MAX(P7,P15)</f>
         <v>22</v>
       </c>
-      <c r="S12" s="72" t="s">
+      <c r="S12" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="72">
+      <c r="T12" s="61">
         <f>R12+S14</f>
         <v>26</v>
       </c>
-      <c r="V12" s="58">
+      <c r="V12" s="48">
         <f>T12</f>
         <v>26</v>
       </c>
-      <c r="W12" s="72" t="s">
+      <c r="W12" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="72">
+      <c r="X12" s="61">
         <f>W14+V12</f>
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="14" spans="1:24">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:24">
+      <c r="A13" s="60"/>
       <c r="B13" s="3">
         <f>D13-C13</f>
         <v>0</v>
@@ -6062,29 +6718,29 @@
         <f>J14-J12</f>
         <v>1</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="R13" s="73">
+      <c r="L13" s="69"/>
+      <c r="R13" s="62">
         <f>R14-R12</f>
         <v>0</v>
       </c>
-      <c r="S13" s="74" t="s">
+      <c r="S13" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="75"/>
-      <c r="V13" s="73">
+      <c r="T13" s="67"/>
+      <c r="V13" s="62">
         <f>V14-V12</f>
         <v>0</v>
       </c>
-      <c r="W13" s="74" t="s">
+      <c r="W13" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="X13" s="75"/>
-    </row>
-    <row r="14" ht="14" spans="1:24">
-      <c r="A14" s="71"/>
+      <c r="X13" s="67"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="60"/>
       <c r="J14" s="3">
         <f>L14-K14</f>
         <v>10</v>
@@ -6096,31 +6752,31 @@
         <f>N17</f>
         <v>17</v>
       </c>
-      <c r="R14" s="73">
+      <c r="R14" s="62">
         <f>T14-S14</f>
         <v>22</v>
       </c>
-      <c r="S14" s="76">
+      <c r="S14" s="63">
         <v>4</v>
       </c>
-      <c r="T14" s="76">
+      <c r="T14" s="63">
         <f>V14</f>
         <v>26</v>
       </c>
-      <c r="V14" s="73">
+      <c r="V14" s="62">
         <f>X14-W14</f>
         <v>26</v>
       </c>
-      <c r="W14" s="76">
+      <c r="W14" s="63">
         <v>3</v>
       </c>
-      <c r="X14" s="76">
+      <c r="X14" s="63">
         <f>X12</f>
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="14" spans="1:16">
-      <c r="A15" s="71"/>
+    <row r="15" spans="1:24">
+      <c r="A15" s="60"/>
       <c r="F15" s="3">
         <f>D11</f>
         <v>3</v>
@@ -6132,39 +6788,39 @@
         <f>F15+G17</f>
         <v>9</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="48">
         <f>MAX(L12,L18)</f>
         <v>17</v>
       </c>
-      <c r="O15" s="72" t="s">
+      <c r="O15" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="72">
+      <c r="P15" s="61">
         <f>N15+O17</f>
         <v>22</v>
       </c>
     </row>
-    <row r="16" ht="14" spans="1:16">
-      <c r="A16" s="71"/>
+    <row r="16" spans="1:24">
+      <c r="A16" s="60"/>
       <c r="F16" s="3">
         <f>F17-F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="N16" s="73">
+      <c r="H16" s="69"/>
+      <c r="N16" s="62">
         <f>N17-N15</f>
         <v>0</v>
       </c>
-      <c r="O16" s="74" t="s">
+      <c r="O16" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="75"/>
-    </row>
-    <row r="17" ht="14" spans="1:16">
-      <c r="A17" s="71"/>
+      <c r="P16" s="67"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="60"/>
       <c r="F17" s="3">
         <f>H17-G17</f>
         <v>3</v>
@@ -6176,370 +6832,370 @@
         <f>J20</f>
         <v>9</v>
       </c>
-      <c r="N17" s="73">
+      <c r="N17" s="62">
         <f>P17-O17</f>
         <v>17</v>
       </c>
-      <c r="O17" s="76">
+      <c r="O17" s="63">
         <v>5</v>
       </c>
-      <c r="P17" s="76">
+      <c r="P17" s="63">
         <f>R14</f>
         <v>22</v>
       </c>
     </row>
-    <row r="18" ht="14" spans="1:12">
-      <c r="A18" s="71"/>
-      <c r="J18" s="58">
+    <row r="18" spans="1:16">
+      <c r="A18" s="60"/>
+      <c r="J18" s="48">
         <f>H15</f>
         <v>9</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="61">
         <f>J18+K20</f>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="10:12">
-      <c r="J19" s="73">
+    <row r="19" spans="1:16">
+      <c r="J19" s="62">
         <f>J20-J18</f>
         <v>0</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="75"/>
-    </row>
-    <row r="20" spans="10:12">
-      <c r="J20" s="73">
+      <c r="L19" s="67"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="J20" s="62">
         <f>L20-K20</f>
         <v>9</v>
       </c>
-      <c r="K20" s="76">
+      <c r="K20" s="63">
         <v>8</v>
       </c>
-      <c r="L20" s="76">
+      <c r="L20" s="63">
         <f>N17</f>
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:16">
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="14" spans="2:10">
+    <row r="23" spans="1:16">
       <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="50" t="s">
         <v>36</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" ht="14" spans="2:10">
+    <row r="24" spans="1:16">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>10</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="54">
         <v>2</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="54">
         <v>3</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="54">
         <v>4</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="57">
         <f t="shared" ref="I24:I33" si="0">(F24+4*G24+H24)/6</f>
         <v>3</v>
       </c>
-      <c r="J24" s="66">
-        <f t="shared" ref="J24:J33" si="1">((H24-F24)/6)^2</f>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="25" ht="14" spans="2:10">
+      <c r="J24" s="57">
+        <f>((H24-F24)/6)^2</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="3">
         <v>20</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="54">
         <v>4</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="54">
         <v>7</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="54">
         <v>10</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I25" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="57">
+        <f t="shared" ref="J25:J33" si="1">((H25-F25)/6)^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="54">
+        <v>5</v>
+      </c>
+      <c r="G26" s="54">
+        <v>6</v>
+      </c>
+      <c r="H26" s="54">
+        <v>7</v>
+      </c>
+      <c r="I26" s="57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J26" s="57">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="54">
+        <v>6</v>
+      </c>
+      <c r="G27" s="54">
+        <v>7</v>
+      </c>
+      <c r="H27" s="54">
+        <v>8</v>
+      </c>
+      <c r="I27" s="57">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J27" s="57">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="54">
+        <v>6</v>
+      </c>
+      <c r="G28" s="54">
+        <v>8</v>
+      </c>
+      <c r="H28" s="54">
+        <v>10</v>
+      </c>
+      <c r="I28" s="57">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J28" s="57">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3">
+        <v>15</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="54">
+        <v>4</v>
+      </c>
+      <c r="G29" s="54">
+        <v>5</v>
+      </c>
+      <c r="H29" s="54">
+        <v>6</v>
+      </c>
+      <c r="I29" s="57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J29" s="57">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>20</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="54">
+        <v>3</v>
+      </c>
+      <c r="G30" s="54">
+        <v>6</v>
+      </c>
+      <c r="H30" s="54">
+        <v>9</v>
+      </c>
+      <c r="I30" s="57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J30" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="14" spans="2:10">
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3">
-        <v>15</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="63">
-        <v>5</v>
-      </c>
-      <c r="G26" s="63">
-        <v>6</v>
-      </c>
-      <c r="H26" s="63">
-        <v>7</v>
-      </c>
-      <c r="I26" s="66">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J26" s="66">
-        <f t="shared" si="1"/>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="27" ht="14" spans="2:10">
-      <c r="B27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="3">
-        <v>45</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="63">
-        <v>6</v>
-      </c>
-      <c r="G27" s="63">
-        <v>7</v>
-      </c>
-      <c r="H27" s="63">
-        <v>8</v>
-      </c>
-      <c r="I27" s="66">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J27" s="66">
-        <f t="shared" si="1"/>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="28" ht="14" spans="2:10">
-      <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="63">
-        <v>6</v>
-      </c>
-      <c r="G28" s="63">
-        <v>8</v>
-      </c>
-      <c r="H28" s="63">
-        <v>10</v>
-      </c>
-      <c r="I28" s="66">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J28" s="66">
-        <f t="shared" si="1"/>
-        <v>0.444444444444444</v>
-      </c>
-    </row>
-    <row r="29" ht="14" spans="2:10">
-      <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3">
-        <v>15</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="63">
-        <v>4</v>
-      </c>
-      <c r="G29" s="63">
-        <v>5</v>
-      </c>
-      <c r="H29" s="63">
-        <v>6</v>
-      </c>
-      <c r="I29" s="66">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J29" s="66">
-        <f t="shared" si="1"/>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="30" ht="14" spans="2:10">
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3">
-        <v>20</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="63">
-        <v>3</v>
-      </c>
-      <c r="G30" s="63">
-        <v>6</v>
-      </c>
-      <c r="H30" s="63">
-        <v>9</v>
-      </c>
-      <c r="I30" s="66">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J30" s="66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="14" spans="2:10">
+    <row r="31" spans="1:16">
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>10</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="54">
         <v>2</v>
       </c>
-      <c r="G31" s="63">
+      <c r="G31" s="54">
         <v>2</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="54">
         <v>2</v>
       </c>
-      <c r="I31" s="66">
+      <c r="I31" s="57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J31" s="66">
+      <c r="J31" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="14" spans="2:10">
+    <row r="32" spans="1:16">
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="54">
         <v>3</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="54">
         <v>4</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="54">
         <v>5</v>
       </c>
-      <c r="I32" s="66">
+      <c r="I32" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J32" s="66">
+      <c r="J32" s="57">
         <f t="shared" si="1"/>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="33" ht="14" spans="2:10">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="3">
         <v>35</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="54">
         <v>2</v>
       </c>
-      <c r="G33" s="63">
+      <c r="G33" s="54">
         <v>3</v>
       </c>
-      <c r="H33" s="63">
+      <c r="H33" s="54">
         <v>4</v>
       </c>
-      <c r="I33" s="66">
+      <c r="I33" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J33" s="66">
+      <c r="J33" s="57">
         <f t="shared" si="1"/>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
@@ -6548,164 +7204,163 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" ht="14" spans="2:2">
-      <c r="B36" s="21" t="s">
+    <row r="36" spans="2:10">
+      <c r="B36" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" ht="14" spans="2:2">
-      <c r="B37" s="21" t="s">
+    <row r="37" spans="2:10">
+      <c r="B37" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" ht="14" spans="2:2">
-      <c r="B38" s="21" t="s">
+    <row r="38" spans="2:10">
+      <c r="B38" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="14" spans="2:2">
-      <c r="B39" s="21" t="s">
+    <row r="39" spans="2:10">
+      <c r="B39" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:10">
       <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>44</v>
+      <c r="C41" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="59">
+      <c r="C42" s="28">
         <f>I24+I25+I30+I31+I32+I33</f>
         <v>25</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="28">
         <f>J24+J25+J30+J31+J32+J33</f>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="E42" s="66">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E42" s="57">
         <f>SQRT(D42)</f>
-        <v>1.52752523165195</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+        <v>1.5275252316519468</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="59">
+        <v>46</v>
+      </c>
+      <c r="C43" s="28">
         <f>I24+I26+I27+I29+I32+I33</f>
         <v>28</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="28">
         <f>J24+J26+J27+J29+J32+J33</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E43" s="66">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="E43" s="57">
         <f t="shared" ref="E43:E44" si="2">SQRT(D43)</f>
-        <v>0.816496580927726</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="60">
+        <v>0.81649658092772603</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="51">
         <f>I24+I26+I28+I29+I32+I33</f>
         <v>29</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="51">
         <f>J24+J26+J28+J29+J32+J33</f>
         <v>1</v>
       </c>
-      <c r="E44" s="67">
+      <c r="E44" s="58">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C46" s="1">
         <f>(28-C44)/E44</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="61">
-        <f>NORMSDIST(C46)</f>
-        <v>0.158655253931457</v>
+    <row r="47" spans="2:10">
+      <c r="B47" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="52">
+        <f>_xlfn.NORM.S.DIST(C46,TRUE)</f>
+        <v>0.15865525393145699</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="K19:L19"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:X118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:XFC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.8333333333333" style="1" customWidth="1"/>
-    <col min="6" max="10" width="10.8333333333333" style="1"/>
-    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.8333333333333" style="1"/>
-    <col min="16" max="16" width="19.025" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1583333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.9666666666667" style="1" customWidth="1"/>
-    <col min="19" max="16383" width="10.8333333333333" style="1"/>
-    <col min="16384" max="16384" width="10.8333333333333"/>
+    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="24.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="19" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" customWidth="1"/>
+    <col min="19" max="16383" width="10.83203125" style="1"/>
+    <col min="16384" max="16384" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
@@ -6713,16 +7368,16 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
@@ -6735,11 +7390,11 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="F3" s="42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
@@ -6752,13 +7407,13 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="43">
         <f>(D4-C4)/E4</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:12">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3">
@@ -6770,12 +7425,12 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="43">
         <f>(D5-C5)/E5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:12">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -6788,13 +7443,13 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="43">
         <f>(D6-C6)/E6</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:12">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3">
@@ -6806,13 +7461,13 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="43">
         <f t="shared" ref="F7:F10" si="0">(D7-C7)/E7</f>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:12">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3">
@@ -6824,12 +7479,12 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:12">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -6842,12 +7497,12 @@
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:12">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -6860,12 +7515,12 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:12">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -6878,12 +7533,12 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="7" t="s">
+      <c r="F11" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3">
@@ -6895,42 +7550,42 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="43">
         <f>(D12-C12)/E12</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-    </row>
-    <row r="17" spans="7:16">
+    <row r="14" spans="1:12">
+      <c r="B14" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="35"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="2:24">
       <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
       <c r="O17" s="3" t="s">
         <v>43</v>
       </c>
@@ -6938,68 +7593,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="6:16">
-      <c r="F18" s="22"/>
+    <row r="18" spans="2:24">
+      <c r="F18" s="18"/>
       <c r="G18" s="3">
         <v>6</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="N18" s="55"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="N18" s="46"/>
       <c r="O18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="3">
         <f>C23+E20+G18+I18+K23+M23</f>
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="2:24">
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="N19" s="55"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="N19" s="46"/>
       <c r="O19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P19" s="3">
         <f>C23+E25+G24+I25+K23+M23</f>
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="5:17">
+    <row r="20" spans="2:24">
       <c r="E20" s="3">
         <v>7</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" s="56">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="47">
         <f>C23+E25+G27+I25+K23+M23</f>
         <v>29</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="22"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="B22" s="18"/>
       <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="18"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -7010,25 +7665,25 @@
         <v>7</v>
       </c>
       <c r="P22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q22" s="57" t="s">
+      <c r="R22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R22" s="57" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="23" spans="2:24">
-      <c r="B23" s="22"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3">
         <v>3</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="36"/>
       <c r="G23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="22"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="3">
         <v>4</v>
       </c>
@@ -7043,23 +7698,23 @@
         <f>SUM($C$3:$C$12)</f>
         <v>185</v>
       </c>
-      <c r="Q23" s="57">
+      <c r="Q23" s="3">
         <v>30</v>
       </c>
-      <c r="R23" s="58">
+      <c r="R23" s="48">
         <f>$P$23+$Q$23</f>
         <v>215</v>
       </c>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>23</v>
       </c>
@@ -7069,109 +7724,110 @@
       <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-    </row>
-    <row r="25" spans="5:24">
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+    </row>
+    <row r="25" spans="2:24">
       <c r="E25" s="3">
         <v>6</v>
       </c>
       <c r="I25" s="3">
         <v>5</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-    </row>
-    <row r="26" spans="6:16">
-      <c r="F26" s="22"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="F26" s="18"/>
       <c r="G26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-    </row>
-    <row r="27" spans="6:16">
-      <c r="F27" s="22"/>
+      <c r="H26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="F27" s="18"/>
       <c r="G27" s="3">
         <v>8</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-    </row>
-    <row r="28" spans="6:16">
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="47" t="s">
+      <c r="H27" s="36"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="C30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" s="1" t="s">
+      <c r="J30" s="46"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="55"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="50">
-        <v>18</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-    </row>
-    <row r="32" spans="7:16">
+      <c r="C31" s="40">
+        <f>F8</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="2:24">
       <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
       <c r="O32" s="3" t="s">
         <v>43</v>
       </c>
@@ -7179,64 +7835,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="6:16">
-      <c r="F33" s="22"/>
+    <row r="33" spans="2:18">
+      <c r="F33" s="18"/>
       <c r="G33" s="3">
         <v>6</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="3">
         <v>2</v>
       </c>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
       <c r="O33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="3">
         <f>C38+E35+G33+I33+K38+M38</f>
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="5:16">
+    <row r="34" spans="2:18">
       <c r="E34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="O34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P34" s="3">
         <f>C38+E40+G39+I40+K38+M38</f>
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="5:17">
+    <row r="35" spans="2:18">
       <c r="E35" s="3">
         <v>7</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="O35" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="P35" s="56">
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="O35" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P35" s="47">
         <f>C38+E40+G42+I40+K38+M38</f>
         <v>28</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
       <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="18"/>
       <c r="K37" s="3" t="s">
         <v>18</v>
       </c>
@@ -7247,24 +7903,24 @@
         <v>7</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q37" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R37" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18">
+    </row>
+    <row r="38" spans="2:18">
       <c r="C38" s="3">
         <v>3</v>
       </c>
-      <c r="D38" s="46"/>
+      <c r="D38" s="36"/>
       <c r="G38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="22"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="3">
         <v>4</v>
       </c>
@@ -7276,106 +7932,108 @@
         <v>28</v>
       </c>
       <c r="P38" s="3">
-        <f>$P$23+$D$8</f>
-        <v>203</v>
-      </c>
-      <c r="Q38" s="57">
+        <f>$P$23+$C$31</f>
+        <v>188</v>
+      </c>
+      <c r="Q38" s="3">
         <f>R3</f>
         <v>0</v>
       </c>
-      <c r="R38" s="57">
+      <c r="R38" s="3">
         <f>$P$38+$Q$38</f>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12">
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="3">
         <v>7</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-    </row>
-    <row r="40" spans="5:12">
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+    </row>
+    <row r="40" spans="2:18">
       <c r="E40" s="3">
         <v>6</v>
       </c>
-      <c r="I40" s="53">
+      <c r="I40" s="44">
         <v>4</v>
       </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="6:12">
-      <c r="F41" s="22"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="F41" s="18"/>
       <c r="G41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="22"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-    </row>
-    <row r="42" spans="6:12">
-      <c r="F42" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="F42" s="18"/>
       <c r="G42" s="3">
         <v>8</v>
       </c>
-      <c r="H42" s="46"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-    </row>
-    <row r="43" spans="6:12">
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="47" t="s">
+      <c r="H42" s="36"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="38"/>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="48"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="35">
+        <f>F5</f>
+        <v>15</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="B47" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="45">
-        <v>30</v>
-      </c>
-      <c r="D46" s="45"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-    </row>
-    <row r="47" spans="2:16">
-      <c r="B47" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="51">
-        <v>16</v>
+      <c r="C47" s="41">
+        <f>F7</f>
+        <v>6</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>9</v>
@@ -7383,9 +8041,9 @@
       <c r="I47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
       <c r="O47" s="3" t="s">
         <v>43</v>
       </c>
@@ -7393,73 +8051,74 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:18">
       <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="22">
-        <v>55</v>
-      </c>
-      <c r="F48" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="C48" s="18">
+        <f>F12</f>
+        <v>20</v>
+      </c>
+      <c r="F48" s="18"/>
       <c r="G48" s="3">
         <v>6</v>
       </c>
-      <c r="H48" s="22"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="3">
         <v>2</v>
       </c>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
       <c r="O48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="3">
         <f>C53+E50+G48+I48+K53+M53</f>
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="5:17">
+    <row r="49" spans="2:18">
       <c r="E49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="O49" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P49" s="7">
+      <c r="F49" s="18"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="O49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" s="6">
         <f>C53+E55+G54+I55+K53+M53</f>
         <v>27</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="5:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18">
       <c r="E50" s="3">
         <v>7</v>
       </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="O50" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="P50" s="56">
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="O50" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P50" s="47">
         <f>C53+E55+G57+I55+K53+M53</f>
         <v>27</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="3:18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18">
       <c r="C52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="22"/>
+      <c r="D52" s="18"/>
       <c r="K52" s="3" t="s">
         <v>18</v>
       </c>
@@ -7470,24 +8129,24 @@
         <v>7</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q52" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R52" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18">
+    </row>
+    <row r="53" spans="2:18">
       <c r="C53" s="3">
         <v>3</v>
       </c>
-      <c r="D53" s="46"/>
+      <c r="D53" s="36"/>
       <c r="G53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="22"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="3">
         <v>4</v>
       </c>
@@ -7500,88 +8159,90 @@
       </c>
       <c r="P53" s="3">
         <f>$P$38+$C$47</f>
-        <v>219</v>
-      </c>
-      <c r="Q53" s="57">
+        <v>194</v>
+      </c>
+      <c r="Q53" s="3">
         <v>0</v>
       </c>
-      <c r="R53" s="57">
+      <c r="R53" s="3">
         <f>$P$53+$Q$53</f>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="3:12">
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="3">
         <v>7</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-    </row>
-    <row r="55" spans="5:12">
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+    </row>
+    <row r="55" spans="2:18">
       <c r="E55" s="3">
         <v>6</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>4</v>
       </c>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-    </row>
-    <row r="56" spans="7:7">
-      <c r="G56" s="53" t="s">
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="G56" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="7:7">
-      <c r="G57" s="53">
+    <row r="57" spans="2:18">
+      <c r="G57" s="44">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="2:18">
       <c r="G58" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="38"/>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="48"/>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18">
+      <c r="B63" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="40">
+        <f>F5</f>
+        <v>15</v>
+      </c>
+      <c r="D63" s="35"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+    </row>
+    <row r="64" spans="2:18">
+      <c r="B64" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="B63" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="50">
-        <v>30</v>
-      </c>
-      <c r="D63" s="45"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-    </row>
-    <row r="64" spans="2:16">
-      <c r="B64" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="25">
-        <v>55</v>
+      <c r="C64" s="21">
+        <f>F12</f>
+        <v>20</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>9</v>
@@ -7589,9 +8250,9 @@
       <c r="I64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
       <c r="O64" s="3" t="s">
         <v>43</v>
       </c>
@@ -7599,67 +8260,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="6:16">
-      <c r="F65" s="22"/>
+    <row r="65" spans="2:18">
+      <c r="F65" s="18"/>
       <c r="G65" s="3">
         <v>6</v>
       </c>
-      <c r="H65" s="22"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="3">
         <v>2</v>
       </c>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
       <c r="O65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P65" s="3">
         <f>C70+E67+G65+I65+K70+M70</f>
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="5:17">
+    <row r="66" spans="2:18">
       <c r="E66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="O66" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P66" s="7">
+      <c r="F66" s="18"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="O66" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P66" s="6">
         <f>C70+E72+G71+I72+K70+M70</f>
         <v>26</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="5:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18">
       <c r="E67" s="3">
         <v>7</v>
       </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="O67" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="P67" s="56">
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="O67" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P67" s="47">
         <f>C70+E72+G74+I72+K70+M70</f>
         <v>26</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="3:18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
       <c r="C69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="22"/>
+      <c r="D69" s="18"/>
       <c r="K69" s="3" t="s">
         <v>18</v>
       </c>
@@ -7670,24 +8331,24 @@
         <v>7</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q69" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R69" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R69" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="3:18">
+    </row>
+    <row r="70" spans="2:18">
       <c r="C70" s="3">
         <v>3</v>
       </c>
-      <c r="D70" s="46"/>
+      <c r="D70" s="36"/>
       <c r="G70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J70" s="22"/>
+      <c r="J70" s="18"/>
       <c r="K70" s="3">
         <v>4</v>
       </c>
@@ -7700,88 +8361,89 @@
       </c>
       <c r="P70" s="3">
         <f>$P$53+$C$63</f>
-        <v>249</v>
-      </c>
-      <c r="Q70" s="57">
+        <v>209</v>
+      </c>
+      <c r="Q70" s="3">
         <v>0</v>
       </c>
-      <c r="R70" s="57">
+      <c r="R70" s="3">
         <f>$P$70+$Q$70</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12">
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="44" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="3">
         <v>7</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-    </row>
-    <row r="72" spans="5:12">
-      <c r="E72" s="53">
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="E72" s="44">
         <v>5</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="6">
         <v>4</v>
       </c>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-    </row>
-    <row r="73" spans="5:7">
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+    </row>
+    <row r="73" spans="2:18">
       <c r="E73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="7:7">
-      <c r="G74" s="7">
+    <row r="74" spans="2:18">
+      <c r="G74" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="48"/>
-    </row>
-    <row r="78" spans="2:3">
+    <row r="77" spans="2:18">
+      <c r="B77" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="38"/>
+    </row>
+    <row r="78" spans="2:18">
       <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="B79" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="49">
-        <v>55</v>
-      </c>
-      <c r="D79" s="45"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-    </row>
-    <row r="80" spans="7:16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="B79" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="39">
+        <f>F12</f>
+        <v>20</v>
+      </c>
+      <c r="D79" s="35"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+    </row>
+    <row r="80" spans="2:18">
       <c r="G80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
       <c r="O80" s="3" t="s">
         <v>43</v>
       </c>
@@ -7789,99 +8451,99 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="6:16">
-      <c r="F81" s="22"/>
+    <row r="81" spans="2:18">
+      <c r="F81" s="18"/>
       <c r="G81" s="3">
         <v>6</v>
       </c>
-      <c r="H81" s="22"/>
+      <c r="H81" s="18"/>
       <c r="I81" s="3">
         <v>2</v>
       </c>
-      <c r="J81" s="54"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
       <c r="O81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P81" s="3">
         <f>C86+E83+G81+I81+K86+M86</f>
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="5:17">
+    <row r="82" spans="2:18">
       <c r="E82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="O82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P82" s="7">
+      <c r="F82" s="18"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="O82" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P82" s="6">
         <f>C86+E88+G87+I88+K86+M86</f>
         <v>25</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="5:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18">
       <c r="E83" s="3">
         <v>7</v>
       </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="O83" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="P83" s="56">
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="O83" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P83" s="47">
         <f>C86+E88+G90+I88+K86+M86</f>
         <v>25</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="3:18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
       <c r="C85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="22"/>
+      <c r="D85" s="18"/>
       <c r="K85" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M85" s="53" t="s">
+      <c r="M85" s="44" t="s">
         <v>19</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q85" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R85" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R85" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="3:18">
+    </row>
+    <row r="86" spans="2:18">
       <c r="C86" s="3">
         <v>3</v>
       </c>
-      <c r="D86" s="46"/>
+      <c r="D86" s="36"/>
       <c r="G86" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="22"/>
+      <c r="J86" s="18"/>
       <c r="K86" s="3">
         <v>4</v>
       </c>
-      <c r="M86" s="53">
+      <c r="M86" s="44">
         <v>2</v>
       </c>
       <c r="O86" s="3">
@@ -7890,95 +8552,95 @@
       </c>
       <c r="P86" s="3">
         <f>$P$70+$C$79</f>
-        <v>304</v>
-      </c>
-      <c r="Q86" s="57">
+        <v>229</v>
+      </c>
+      <c r="Q86" s="3">
         <v>0</v>
       </c>
-      <c r="R86" s="57">
+      <c r="R86" s="3">
         <f>$P$86+$Q$86</f>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12">
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18">
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="3">
         <v>7</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-    </row>
-    <row r="88" spans="5:12">
-      <c r="E88" s="7">
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+    </row>
+    <row r="88" spans="2:18">
+      <c r="E88" s="6">
         <v>5</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="6">
         <v>4</v>
       </c>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-    </row>
-    <row r="89" spans="7:7">
-      <c r="G89" s="7" t="s">
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+    </row>
+    <row r="89" spans="2:18">
+      <c r="G89" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="7:7">
-      <c r="G90" s="7">
+    <row r="90" spans="2:18">
+      <c r="G90" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" spans="7:7">
-      <c r="G91" s="62"/>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="7:7">
-      <c r="G92" s="62"/>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="19" t="s">
+    <row r="91" spans="2:18" s="1" customFormat="1">
+      <c r="G91" s="53"/>
+    </row>
+    <row r="92" spans="2:18" s="1" customFormat="1">
+      <c r="G92" s="53"/>
+    </row>
+    <row r="94" spans="2:18">
+      <c r="B94" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18">
+      <c r="B95" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G94" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" ht="14" spans="2:12">
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" s="63" t="s">
+      <c r="G95" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H95" s="63" t="s">
+      <c r="H95" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I95" s="63" t="s">
+      <c r="I95" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="J95" s="63" t="s">
+      <c r="J95" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="K95" s="50" t="s">
         <v>36</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" ht="14" spans="3:12">
+    <row r="96" spans="2:18">
       <c r="C96" s="3">
         <f>$P$20</f>
         <v>29</v>
@@ -7987,64 +8649,64 @@
         <f>R23</f>
         <v>215</v>
       </c>
-      <c r="G96" s="63" t="s">
+      <c r="G96" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H96" s="63">
+      <c r="H96" s="54">
         <v>2</v>
       </c>
-      <c r="I96" s="63">
+      <c r="I96" s="54">
         <v>3</v>
       </c>
-      <c r="J96" s="63">
+      <c r="J96" s="54">
         <v>4</v>
       </c>
-      <c r="K96" s="66">
+      <c r="K96" s="57">
         <f t="shared" ref="K96:K105" si="1">(H96+4*I96+J96)/6</f>
         <v>3</v>
       </c>
-      <c r="L96" s="66">
+      <c r="L96" s="57">
         <f t="shared" ref="L96:L105" si="2">((J96-H96)/6)^2</f>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="97" ht="14" spans="2:12">
-      <c r="B97" s="49" t="s">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <f>$P$35</f>
         <v>28</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="6">
         <f>R38</f>
-        <v>203</v>
-      </c>
-      <c r="E97" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G97" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G97" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H97" s="63">
+      <c r="H97" s="54">
         <v>4</v>
       </c>
-      <c r="I97" s="63">
+      <c r="I97" s="54">
         <v>7</v>
       </c>
-      <c r="J97" s="63">
+      <c r="J97" s="54">
         <v>10</v>
       </c>
-      <c r="K97" s="66">
+      <c r="K97" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L97" s="66">
+      <c r="L97" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="14" spans="2:12">
+    <row r="98" spans="2:13">
       <c r="B98" s="1" t="s">
         <v>27</v>
       </c>
@@ -8054,30 +8716,30 @@
       </c>
       <c r="D98" s="3">
         <f>R53</f>
-        <v>219</v>
-      </c>
-      <c r="G98" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="G98" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H98" s="63">
+      <c r="H98" s="54">
         <v>5</v>
       </c>
-      <c r="I98" s="63">
+      <c r="I98" s="54">
         <v>6</v>
       </c>
-      <c r="J98" s="63">
+      <c r="J98" s="54">
         <v>7</v>
       </c>
-      <c r="K98" s="66">
+      <c r="K98" s="57">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L98" s="66">
+      <c r="L98" s="57">
         <f t="shared" si="2"/>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="99" ht="14" spans="2:12">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13">
       <c r="B99" s="1" t="s">
         <v>23</v>
       </c>
@@ -8087,30 +8749,30 @@
       </c>
       <c r="D99" s="3">
         <f>R70</f>
-        <v>249</v>
-      </c>
-      <c r="G99" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="G99" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H99" s="63">
+      <c r="H99" s="54">
         <v>6</v>
       </c>
-      <c r="I99" s="63">
+      <c r="I99" s="54">
         <v>7</v>
       </c>
-      <c r="J99" s="63">
+      <c r="J99" s="54">
         <v>8</v>
       </c>
-      <c r="K99" s="66">
+      <c r="K99" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L99" s="66">
+      <c r="L99" s="57">
         <f t="shared" si="2"/>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="100" ht="14" spans="2:12">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13">
       <c r="B100" s="1" t="s">
         <v>19</v>
       </c>
@@ -8120,248 +8782,248 @@
       </c>
       <c r="D100" s="3">
         <f>R86</f>
-        <v>304</v>
-      </c>
-      <c r="G100" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="G100" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H100" s="63">
+      <c r="H100" s="54">
         <v>6</v>
       </c>
-      <c r="I100" s="63">
+      <c r="I100" s="54">
         <v>8</v>
       </c>
-      <c r="J100" s="63">
+      <c r="J100" s="54">
         <v>10</v>
       </c>
-      <c r="K100" s="66">
+      <c r="K100" s="57">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L100" s="66">
+      <c r="L100" s="57">
         <f t="shared" si="2"/>
-        <v>0.444444444444444</v>
-      </c>
-    </row>
-    <row r="101" ht="14" spans="7:13">
-      <c r="G101" s="65" t="s">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="G101" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H101" s="65">
+      <c r="H101" s="56">
         <f>4-1</f>
         <v>3</v>
       </c>
-      <c r="I101" s="65">
+      <c r="I101" s="56">
         <f>5-1</f>
         <v>4</v>
       </c>
-      <c r="J101" s="65">
+      <c r="J101" s="56">
         <f>6-1</f>
         <v>5</v>
       </c>
-      <c r="K101" s="67">
+      <c r="K101" s="58">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L101" s="67">
+      <c r="L101" s="58">
         <f t="shared" si="2"/>
-        <v>0.111111111111111</v>
-      </c>
-      <c r="M101" s="64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="102" ht="14" spans="7:12">
-      <c r="G102" s="63" t="s">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M101" s="55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="G102" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="63">
+      <c r="H102" s="54">
         <v>3</v>
       </c>
-      <c r="I102" s="63">
+      <c r="I102" s="54">
         <v>6</v>
       </c>
-      <c r="J102" s="63">
+      <c r="J102" s="54">
         <v>9</v>
       </c>
-      <c r="K102" s="66">
+      <c r="K102" s="57">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L102" s="66">
+      <c r="L102" s="57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="14" spans="7:12">
-      <c r="G103" s="63" t="s">
+    <row r="103" spans="2:13">
+      <c r="G103" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H103" s="63">
+      <c r="H103" s="54">
         <v>2</v>
       </c>
-      <c r="I103" s="63">
+      <c r="I103" s="54">
         <v>2</v>
       </c>
-      <c r="J103" s="63">
+      <c r="J103" s="54">
         <v>2</v>
       </c>
-      <c r="K103" s="66">
+      <c r="K103" s="57">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L103" s="66">
+      <c r="L103" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="14" spans="7:12">
-      <c r="G104" s="63" t="s">
+    <row r="104" spans="2:13">
+      <c r="G104" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H104" s="63">
+      <c r="H104" s="54">
         <v>3</v>
       </c>
-      <c r="I104" s="63">
+      <c r="I104" s="54">
         <v>4</v>
       </c>
-      <c r="J104" s="63">
+      <c r="J104" s="54">
         <v>5</v>
       </c>
-      <c r="K104" s="66">
+      <c r="K104" s="57">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L104" s="66">
+      <c r="L104" s="57">
         <f t="shared" si="2"/>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="105" ht="14" spans="7:12">
-      <c r="G105" s="63" t="s">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="G105" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H105" s="63">
+      <c r="H105" s="54">
         <v>2</v>
       </c>
-      <c r="I105" s="63">
+      <c r="I105" s="54">
         <v>3</v>
       </c>
-      <c r="J105" s="63">
+      <c r="J105" s="54">
         <v>4</v>
       </c>
-      <c r="K105" s="66">
+      <c r="K105" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L105" s="66">
+      <c r="L105" s="57">
         <f t="shared" si="2"/>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="107" ht="14" spans="2:2">
-      <c r="B107" s="21" t="s">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="108" ht="14" spans="2:2">
-      <c r="B108" s="21" t="s">
+    <row r="108" spans="2:13">
+      <c r="B108" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" ht="14" spans="2:2">
-      <c r="B109" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" ht="14" spans="2:2">
-      <c r="B110" s="21" t="s">
+    <row r="109" spans="2:13">
+      <c r="B109" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="B110" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:13">
       <c r="B112" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>44</v>
+      <c r="C112" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E112" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C113" s="59">
+      <c r="C113" s="28">
         <f>K96+K97+K102+K103+K104+K105</f>
         <v>25</v>
       </c>
-      <c r="D113" s="59">
+      <c r="D113" s="28">
         <f>L96+L97+L102+L103+L104+L105</f>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="E113" s="66">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E113" s="57">
         <f>SQRT(D113)</f>
-        <v>1.52752523165195</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
+        <v>1.5275252316519468</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
       <c r="B114" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C114" s="59">
+        <v>46</v>
+      </c>
+      <c r="C114" s="28">
         <f>K96+K98+K99+K101+K104+K105</f>
         <v>27</v>
       </c>
-      <c r="D114" s="59">
+      <c r="D114" s="28">
         <f>L96+L98+L99+L101+L104+L105</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E114" s="66">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="E114" s="57">
         <f t="shared" ref="E114:E115" si="3">SQRT(D114)</f>
-        <v>0.816496580927726</v>
+        <v>0.81649658092772603</v>
       </c>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C115" s="60">
+      <c r="B115" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="51">
         <f>K96+K98+K100+K101+K104+K105</f>
         <v>28</v>
       </c>
-      <c r="D115" s="60">
+      <c r="D115" s="51">
         <f>L96+L98+L100+L101+L104+L105</f>
         <v>1</v>
       </c>
-      <c r="E115" s="67">
+      <c r="E115" s="58">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F115" s="64" t="s">
+      <c r="F115" s="55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C117" s="1">
         <f>(28-C115)/E115</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C118" s="61">
-        <f>NORMSDIST(C117)</f>
+    <row r="118" spans="2:6">
+      <c r="B118" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" s="52">
+        <f>_xlfn.NORM.S.DIST(C117,TRUE)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -8370,40 +9032,39 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="C15:D15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="1"/>
-    <col min="2" max="2" width="13.8333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.8333333333333" style="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>83</v>
@@ -8415,7 +9076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -8427,7 +9088,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>1</v>
@@ -8439,7 +9100,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>2</v>
@@ -8451,202 +9112,202 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <f>IRR(C3:C6)</f>
-        <v>0.271779788708135</v>
-      </c>
-      <c r="D8" s="17">
+        <v>0.27177978870813457</v>
+      </c>
+      <c r="D8" s="13">
         <f>IRR(D3:D6)</f>
-        <v>0.257713417537457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.25771341753745669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" ht="14" spans="2:6">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:6">
+      <c r="B12" s="17" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="6:6">
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" t="s">
+    <row r="13" spans="1:6">
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="23" t="s">
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="20">
         <f>C3+NPV(C11,C4:C5)</f>
-        <v>127.572016460905</v>
-      </c>
-      <c r="D15" s="24">
+        <v>127.57201646090539</v>
+      </c>
+      <c r="D15" s="20">
         <f>D3+NPV(C11,D4:D6)</f>
-        <v>141.352944165016</v>
-      </c>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="1:6">
+        <v>141.35294416501551</v>
+      </c>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="26" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>2</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="26" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="23">
         <v>3</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="28" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21">
         <v>6</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="29" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33" t="s">
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="79"/>
+      <c r="C25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="1:8">
       <c r="B26" s="3">
         <v>0</v>
       </c>
@@ -8661,14 +9322,14 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="1:8">
       <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>400</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="3">
         <f t="shared" ref="E27:E32" si="0">D27+C27</f>
         <v>400</v>
@@ -8676,13 +9337,13 @@
       <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="3">
         <f t="shared" ref="H27:H32" si="1">G27+F27</f>
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="1:8">
       <c r="B28" s="3">
         <v>2</v>
       </c>
@@ -8705,7 +9366,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="1:8">
       <c r="B29" s="3">
         <v>3</v>
       </c>
@@ -8728,7 +9389,7 @@
         <v>-420</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="1:8">
       <c r="B30" s="3">
         <v>4</v>
       </c>
@@ -8751,7 +9412,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="1:8">
       <c r="B31" s="3">
         <v>5</v>
       </c>
@@ -8772,7 +9433,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="1:8">
       <c r="B32" s="3">
         <v>6</v>
       </c>
@@ -8794,37 +9455,138 @@
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="22"/>
-      <c r="D33" s="35" t="s">
+      <c r="B33" s="18"/>
+      <c r="D33" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="32">
         <f>D26+NPV(C35,E27:E32)</f>
-        <v>330.713699037223</v>
-      </c>
-      <c r="G33" s="35" t="s">
+        <v>330.71369903722348</v>
+      </c>
+      <c r="G33" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="32">
         <f>G26+NPV(C35,H27:H32)</f>
-        <v>253.563468606329</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="19" t="s">
+        <v>253.56346860632868</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="16">
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" ht="14" spans="2:2">
-      <c r="B36" s="21" t="s">
+    <row r="36" spans="2:8">
+      <c r="B36" s="17" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="E56" s="18"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-500</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>300</v>
+      </c>
+      <c r="D62" s="28">
+        <f>C62/(1+$C$68)^B62</f>
+        <v>235.88989435406739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>350</v>
+      </c>
+      <c r="D63" s="28">
+        <f>C63/(1+$C$68)^B63</f>
+        <v>216.39349767145083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="3">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>80</v>
+      </c>
+      <c r="D64" s="28">
+        <f>C64/(1+$C$68)^B64</f>
+        <v>38.89145851781003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="33">
+        <f>C8</f>
+        <v>0.27177978870813457</v>
+      </c>
+      <c r="D68" s="33"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="34">
+        <f>SUM(D62:D64)</f>
+        <v>491.1748505433282</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="34">
+        <f>500-C69</f>
+        <v>8.8251494566717952</v>
       </c>
     </row>
   </sheetData>
@@ -8833,32 +9595,31 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="B24:B25"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.8333333333333" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -8870,7 +9631,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3">
         <f>D3+3</f>
@@ -8884,7 +9645,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3">
         <f>H3+1</f>
@@ -8898,29 +9659,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="1:12">
       <c r="B4" s="3">
         <f>B5-B3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="F4" s="3">
         <f>F5-F3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
       <c r="J4" s="3">
         <f>J5-J3</f>
         <v>0</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="3">
-        <f>D5-C5</f>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="50">
         <v>0</v>
       </c>
       <c r="C5" s="3">
@@ -8953,12 +9713,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -8970,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3">
         <f>D9</f>
@@ -8984,7 +9744,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J9" s="3">
         <f>H9</f>
@@ -8998,27 +9758,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="1:12">
       <c r="B10" s="3">
         <f>B11-B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
       <c r="F10" s="3">
         <f>F11-F9</f>
         <v>0</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
       <c r="J10" s="3">
         <f>J11-J9</f>
         <v>0</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="3">
         <f>D11-C11</f>
         <v>0</v>
@@ -9056,10 +9816,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:12">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:12">
       <c r="A14" s="2"/>
     </row>
   </sheetData>
@@ -9071,242 +9831,245 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="K10:L10"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="4" width="16.1666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.8333333333333" style="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="A4" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="83">
         <v>0.1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="85">
         <f>B14*C4</f>
         <v>60000</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>107</v>
+      <c r="E4" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="F4" s="5">
         <v>0.04</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <f>$B$14*F4</f>
         <v>24000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="11" t="s">
-        <v>108</v>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="F5" s="5">
         <v>0.06</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <f t="shared" ref="G5:G12" si="0">$B$14*F5</f>
         <v>36000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="84">
         <v>0.4</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="86">
         <f>B14*C6</f>
         <v>240000</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>109</v>
+      <c r="E6" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F6" s="5">
         <v>0.03</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11" t="s">
-        <v>110</v>
+      <c r="A7" s="80"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="F7" s="5">
         <v>0.03</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11" t="s">
-        <v>111</v>
+      <c r="A8" s="80"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="F8" s="5">
         <v>0.04</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11" t="s">
-        <v>112</v>
+      <c r="A9" s="80"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F9" s="5">
         <v>0.1</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="A10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.2</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="A11" s="80"/>
+      <c r="B11" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="83">
         <v>0.5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="85">
         <f>B14*C11</f>
         <v>300000</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="7">
         <v>0.4</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="11" t="s">
-        <v>116</v>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F12" s="5">
         <v>0.1</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="1:7">
       <c r="F13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="10">
+        <v>121</v>
+      </c>
+      <c r="G13" s="8">
         <f>SUM(G4:G12)</f>
         <v>600000</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>600000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B10"/>
@@ -9314,12 +10077,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>